--- a/data/pca/factorExposure/factorExposure_2012-07-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-03.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01765443677905975</v>
+        <v>0.02213960597564564</v>
       </c>
       <c r="C2">
-        <v>-0.02800757583249126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02432750466046483</v>
+      </c>
+      <c r="D2">
+        <v>0.005678778140707771</v>
+      </c>
+      <c r="E2">
+        <v>0.01914269829353489</v>
+      </c>
+      <c r="F2">
+        <v>0.004082862358058323</v>
+      </c>
+      <c r="G2">
+        <v>-0.01589249875350224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06846825499921051</v>
+        <v>0.07558986289160373</v>
       </c>
       <c r="C4">
-        <v>-0.06084907177004123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04143943410689447</v>
+      </c>
+      <c r="D4">
+        <v>0.07046748947286534</v>
+      </c>
+      <c r="E4">
+        <v>-0.0003869492935211481</v>
+      </c>
+      <c r="F4">
+        <v>0.02801755151167159</v>
+      </c>
+      <c r="G4">
+        <v>0.0209782555879054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09670298548118117</v>
+        <v>0.1120762928908601</v>
       </c>
       <c r="C6">
-        <v>-0.06812358602705533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04683916183317184</v>
+      </c>
+      <c r="D6">
+        <v>0.01151170403589936</v>
+      </c>
+      <c r="E6">
+        <v>0.003094924539272387</v>
+      </c>
+      <c r="F6">
+        <v>0.04155770072694556</v>
+      </c>
+      <c r="G6">
+        <v>-0.01467881663150262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04442000493338981</v>
+        <v>0.05363605109160027</v>
       </c>
       <c r="C7">
-        <v>-0.03516544682630674</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02653058379304596</v>
+      </c>
+      <c r="D7">
+        <v>0.03432892001071657</v>
+      </c>
+      <c r="E7">
+        <v>0.02149379396768153</v>
+      </c>
+      <c r="F7">
+        <v>0.03240137307957055</v>
+      </c>
+      <c r="G7">
+        <v>0.03613621801224941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03241994118512559</v>
+        <v>0.03426693596320026</v>
       </c>
       <c r="C8">
-        <v>-0.02796834975495007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.01808682191099873</v>
+      </c>
+      <c r="D8">
+        <v>0.03959496924904137</v>
+      </c>
+      <c r="E8">
+        <v>0.006153244372525428</v>
+      </c>
+      <c r="F8">
+        <v>0.04883495626619207</v>
+      </c>
+      <c r="G8">
+        <v>-0.02309958250030459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0617980969593724</v>
+        <v>0.07012561446644228</v>
       </c>
       <c r="C9">
-        <v>-0.04639759122798045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.03006539405978367</v>
+      </c>
+      <c r="D9">
+        <v>0.07010413934716479</v>
+      </c>
+      <c r="E9">
+        <v>0.0147727895013712</v>
+      </c>
+      <c r="F9">
+        <v>0.03776877690960947</v>
+      </c>
+      <c r="G9">
+        <v>0.006886842025380681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02973693923373303</v>
+        <v>0.04142809823823135</v>
       </c>
       <c r="C10">
-        <v>-0.0391373491806588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03964515774981565</v>
+      </c>
+      <c r="D10">
+        <v>-0.1862854577019696</v>
+      </c>
+      <c r="E10">
+        <v>0.0493296530312107</v>
+      </c>
+      <c r="F10">
+        <v>0.03639383404224274</v>
+      </c>
+      <c r="G10">
+        <v>0.03146741923570278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06912879803065135</v>
+        <v>0.07540400873637687</v>
       </c>
       <c r="C11">
-        <v>-0.0533717114986211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.03174716570185475</v>
+      </c>
+      <c r="D11">
+        <v>0.06794753809260656</v>
+      </c>
+      <c r="E11">
+        <v>-0.008034360169385666</v>
+      </c>
+      <c r="F11">
+        <v>0.03553311325374476</v>
+      </c>
+      <c r="G11">
+        <v>0.03329800783735605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05246027012856637</v>
+        <v>0.06012709102015235</v>
       </c>
       <c r="C12">
-        <v>-0.05232570630814662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03609608997230163</v>
+      </c>
+      <c r="D12">
+        <v>0.05118959468306177</v>
+      </c>
+      <c r="E12">
+        <v>0.01014446714754903</v>
+      </c>
+      <c r="F12">
+        <v>0.02571467244521991</v>
+      </c>
+      <c r="G12">
+        <v>0.03082686206033887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05896820705355856</v>
+        <v>0.06447259216281001</v>
       </c>
       <c r="C13">
-        <v>-0.05116026386215312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.03153473129465317</v>
+      </c>
+      <c r="D13">
+        <v>0.05450792998623837</v>
+      </c>
+      <c r="E13">
+        <v>0.005578936609560156</v>
+      </c>
+      <c r="F13">
+        <v>0.01863240810697339</v>
+      </c>
+      <c r="G13">
+        <v>0.01559087820057935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03376499386543358</v>
+        <v>0.03842614902838788</v>
       </c>
       <c r="C14">
-        <v>-0.02907828837766943</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02202016324483481</v>
+      </c>
+      <c r="D14">
+        <v>0.009217304477027453</v>
+      </c>
+      <c r="E14">
+        <v>0.01127664430080568</v>
+      </c>
+      <c r="F14">
+        <v>0.01663609781264535</v>
+      </c>
+      <c r="G14">
+        <v>-0.005833692255060629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03904673367494681</v>
+        <v>0.04031458928043936</v>
       </c>
       <c r="C15">
-        <v>-0.01293972252080962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.003890719353048032</v>
+      </c>
+      <c r="D15">
+        <v>0.01817588417635735</v>
+      </c>
+      <c r="E15">
+        <v>0.03728860253037153</v>
+      </c>
+      <c r="F15">
+        <v>0.001482924871106769</v>
+      </c>
+      <c r="G15">
+        <v>-0.01914568360498486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05758113603711344</v>
+        <v>0.06186768897001548</v>
       </c>
       <c r="C16">
-        <v>-0.04480724336112194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02801681564442617</v>
+      </c>
+      <c r="D16">
+        <v>0.06009656173074927</v>
+      </c>
+      <c r="E16">
+        <v>-0.0005027285008175638</v>
+      </c>
+      <c r="F16">
+        <v>0.03075016070103804</v>
+      </c>
+      <c r="G16">
+        <v>0.01996924759759953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06212215462177018</v>
+        <v>0.06143150063318176</v>
       </c>
       <c r="C20">
-        <v>-0.0370158958735794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01823382187526989</v>
+      </c>
+      <c r="D20">
+        <v>0.04939885224968086</v>
+      </c>
+      <c r="E20">
+        <v>0.01746782706000403</v>
+      </c>
+      <c r="F20">
+        <v>0.02717624896666652</v>
+      </c>
+      <c r="G20">
+        <v>0.02478965456295876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02774175622671912</v>
+        <v>0.02307579469466847</v>
       </c>
       <c r="C21">
-        <v>0.0004365851741966064</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.01041189414482318</v>
+      </c>
+      <c r="D21">
+        <v>0.03026061716664454</v>
+      </c>
+      <c r="E21">
+        <v>0.09471500723506004</v>
+      </c>
+      <c r="F21">
+        <v>-0.004251026478671249</v>
+      </c>
+      <c r="G21">
+        <v>-0.01630585109172231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.06788939658015727</v>
+        <v>0.06516294126963701</v>
       </c>
       <c r="C22">
-        <v>-0.07180830244288666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.0432344666476115</v>
+      </c>
+      <c r="D22">
+        <v>0.1066199067561289</v>
+      </c>
+      <c r="E22">
+        <v>0.6117676673543373</v>
+      </c>
+      <c r="F22">
+        <v>-0.1413724465159569</v>
+      </c>
+      <c r="G22">
+        <v>-0.004532171334554439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06864321240595858</v>
+        <v>0.06587881531010162</v>
       </c>
       <c r="C23">
-        <v>-0.07134164668653402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.0426810809537112</v>
+      </c>
+      <c r="D23">
+        <v>0.1077488028659713</v>
+      </c>
+      <c r="E23">
+        <v>0.6110166721925345</v>
+      </c>
+      <c r="F23">
+        <v>-0.1411855201492813</v>
+      </c>
+      <c r="G23">
+        <v>-0.006216609586260198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06430885758459012</v>
+        <v>0.07259706685838928</v>
       </c>
       <c r="C24">
-        <v>-0.05279844811756273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03362889529240846</v>
+      </c>
+      <c r="D24">
+        <v>0.06654769262421398</v>
+      </c>
+      <c r="E24">
+        <v>0.007678883757689606</v>
+      </c>
+      <c r="F24">
+        <v>0.04412833684762561</v>
+      </c>
+      <c r="G24">
+        <v>0.01399967799892799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06435263055191914</v>
+        <v>0.07057488522002164</v>
       </c>
       <c r="C25">
-        <v>-0.05799408902987024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03863986758739717</v>
+      </c>
+      <c r="D25">
+        <v>0.06418699948727548</v>
+      </c>
+      <c r="E25">
+        <v>0.008406699142538557</v>
+      </c>
+      <c r="F25">
+        <v>0.03782896645383835</v>
+      </c>
+      <c r="G25">
+        <v>0.01108028368699714</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03931763858066513</v>
+        <v>0.03999945902554319</v>
       </c>
       <c r="C26">
-        <v>-0.01374807119324321</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005556864023902132</v>
+      </c>
+      <c r="D26">
+        <v>0.02039381990431738</v>
+      </c>
+      <c r="E26">
+        <v>0.03859431206206193</v>
+      </c>
+      <c r="F26">
+        <v>0.02052958492810761</v>
+      </c>
+      <c r="G26">
+        <v>0.01835262067913896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.05284220741865395</v>
+        <v>0.07453664831748903</v>
       </c>
       <c r="C28">
-        <v>-0.07472241502098072</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07644822259949931</v>
+      </c>
+      <c r="D28">
+        <v>-0.3242911626409254</v>
+      </c>
+      <c r="E28">
+        <v>0.04242743445841112</v>
+      </c>
+      <c r="F28">
+        <v>0.050658898662987</v>
+      </c>
+      <c r="G28">
+        <v>-0.02867727837103876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03600173980404077</v>
+        <v>0.04218117487356111</v>
       </c>
       <c r="C29">
-        <v>-0.03306863077603863</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02563358813417383</v>
+      </c>
+      <c r="D29">
+        <v>0.009566646274952529</v>
+      </c>
+      <c r="E29">
+        <v>0.03740810785731725</v>
+      </c>
+      <c r="F29">
+        <v>0.01073838014465456</v>
+      </c>
+      <c r="G29">
+        <v>0.008858194774653478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1132781768472387</v>
+        <v>0.1262698372947723</v>
       </c>
       <c r="C30">
-        <v>-0.09641412657125036</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06448165949226672</v>
+      </c>
+      <c r="D30">
+        <v>0.1040022018265066</v>
+      </c>
+      <c r="E30">
+        <v>0.03319545507968385</v>
+      </c>
+      <c r="F30">
+        <v>0.01736972216738928</v>
+      </c>
+      <c r="G30">
+        <v>-0.005810676558254311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03833486278703755</v>
+        <v>0.04301799711511747</v>
       </c>
       <c r="C31">
-        <v>-0.02592066512780283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01641116436386141</v>
+      </c>
+      <c r="D31">
+        <v>0.0296059948569592</v>
+      </c>
+      <c r="E31">
+        <v>0.02056240152265811</v>
+      </c>
+      <c r="F31">
+        <v>0.01499581269151489</v>
+      </c>
+      <c r="G31">
+        <v>0.02006716309788454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03188640765495901</v>
+        <v>0.03271801739371268</v>
       </c>
       <c r="C32">
-        <v>-0.02770381115313473</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01728921122452443</v>
+      </c>
+      <c r="D32">
+        <v>0.01631251946798231</v>
+      </c>
+      <c r="E32">
+        <v>0.05920202931974808</v>
+      </c>
+      <c r="F32">
+        <v>-0.01396820751792655</v>
+      </c>
+      <c r="G32">
+        <v>-0.003983287905811821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07583316855954764</v>
+        <v>0.08795902127004401</v>
       </c>
       <c r="C33">
-        <v>-0.05268345922236629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.0346160527906011</v>
+      </c>
+      <c r="D33">
+        <v>0.06445072745178136</v>
+      </c>
+      <c r="E33">
+        <v>0.01136596894179745</v>
+      </c>
+      <c r="F33">
+        <v>0.006917468862260101</v>
+      </c>
+      <c r="G33">
+        <v>0.02855254033263303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05121228934001228</v>
+        <v>0.05635689445806066</v>
       </c>
       <c r="C34">
-        <v>-0.0335378018972067</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01935590871751585</v>
+      </c>
+      <c r="D34">
+        <v>0.05770004278895541</v>
+      </c>
+      <c r="E34">
+        <v>0.004163709181377297</v>
+      </c>
+      <c r="F34">
+        <v>0.02704168499979151</v>
+      </c>
+      <c r="G34">
+        <v>0.01206787411521561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03707079207940757</v>
+        <v>0.03930839994411661</v>
       </c>
       <c r="C35">
-        <v>-0.01426082032635423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.006410880535528007</v>
+      </c>
+      <c r="D35">
+        <v>0.01021203316824353</v>
+      </c>
+      <c r="E35">
+        <v>0.03084744181254276</v>
+      </c>
+      <c r="F35">
+        <v>-0.004605633853767114</v>
+      </c>
+      <c r="G35">
+        <v>0.01163988686435245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01933897171139157</v>
+        <v>0.02306215104016387</v>
       </c>
       <c r="C36">
-        <v>-0.01641394821298644</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01118424929196707</v>
+      </c>
+      <c r="D36">
+        <v>0.01909800203669472</v>
+      </c>
+      <c r="E36">
+        <v>0.0349705453709292</v>
+      </c>
+      <c r="F36">
+        <v>0.02034167174222867</v>
+      </c>
+      <c r="G36">
+        <v>0.0189410433196656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.036667987241836</v>
+        <v>0.03998864535162509</v>
       </c>
       <c r="C38">
-        <v>-0.01236932793806824</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.003877032329457878</v>
+      </c>
+      <c r="D38">
+        <v>0.0119216558637084</v>
+      </c>
+      <c r="E38">
+        <v>0.0597695095988579</v>
+      </c>
+      <c r="F38">
+        <v>-0.0198065492657685</v>
+      </c>
+      <c r="G38">
+        <v>-0.02181734183971969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08721486112656526</v>
+        <v>0.09944335095182295</v>
       </c>
       <c r="C39">
-        <v>-0.08186977378031146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05559393907191301</v>
+      </c>
+      <c r="D39">
+        <v>0.08602317345760238</v>
+      </c>
+      <c r="E39">
+        <v>-0.01764150975104766</v>
+      </c>
+      <c r="F39">
+        <v>0.0218720606860806</v>
+      </c>
+      <c r="G39">
+        <v>-0.006389246485691202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06699740097930498</v>
+        <v>0.07277821018531838</v>
       </c>
       <c r="C40">
-        <v>-0.05679690570656244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.03787491645845976</v>
+      </c>
+      <c r="D40">
+        <v>0.01134502223827265</v>
+      </c>
+      <c r="E40">
+        <v>0.02266988244132394</v>
+      </c>
+      <c r="F40">
+        <v>-0.04387047188619699</v>
+      </c>
+      <c r="G40">
+        <v>-0.04602795076953774</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03905072733416856</v>
+        <v>0.04293870437144455</v>
       </c>
       <c r="C41">
-        <v>-0.01742874373014031</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008747936675586489</v>
+      </c>
+      <c r="D41">
+        <v>0.04175063350851684</v>
+      </c>
+      <c r="E41">
+        <v>0.008321297495916697</v>
+      </c>
+      <c r="F41">
+        <v>-0.008247561626543446</v>
+      </c>
+      <c r="G41">
+        <v>-0.001116216100362698</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0410339831602803</v>
+        <v>0.04934591865271751</v>
       </c>
       <c r="C43">
-        <v>-0.03758996585730626</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02456616004309938</v>
+      </c>
+      <c r="D43">
+        <v>0.02874328026237961</v>
+      </c>
+      <c r="E43">
+        <v>0.0174933985522263</v>
+      </c>
+      <c r="F43">
+        <v>0.01278913397422864</v>
+      </c>
+      <c r="G43">
+        <v>0.01429442836474148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08752056979603345</v>
+        <v>0.0898760842215468</v>
       </c>
       <c r="C44">
-        <v>-0.09337823644410743</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06277362685963465</v>
+      </c>
+      <c r="D44">
+        <v>0.06256617201595659</v>
+      </c>
+      <c r="E44">
+        <v>0.1000046103967321</v>
+      </c>
+      <c r="F44">
+        <v>0.06310873282084309</v>
+      </c>
+      <c r="G44">
+        <v>7.001653615924339e-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02731695398244946</v>
+        <v>0.0280526734144276</v>
       </c>
       <c r="C46">
-        <v>-0.0192302834935442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01192732644162346</v>
+      </c>
+      <c r="D46">
+        <v>0.0326443654627514</v>
+      </c>
+      <c r="E46">
+        <v>0.01586750948641332</v>
+      </c>
+      <c r="F46">
+        <v>0.01939201461065524</v>
+      </c>
+      <c r="G46">
+        <v>-0.007223159553211966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.03004145967957556</v>
+        <v>0.03230750020349498</v>
       </c>
       <c r="C47">
-        <v>-0.02174251251196152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01298468722422563</v>
+      </c>
+      <c r="D47">
+        <v>0.01810187982145959</v>
+      </c>
+      <c r="E47">
+        <v>0.05072983946119668</v>
+      </c>
+      <c r="F47">
+        <v>0.01392753334030434</v>
+      </c>
+      <c r="G47">
+        <v>0.02643808404937787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02831019135654546</v>
+        <v>0.03187356033702187</v>
       </c>
       <c r="C48">
-        <v>-0.02003565214764762</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01216999818883218</v>
+      </c>
+      <c r="D48">
+        <v>0.02920074365067873</v>
+      </c>
+      <c r="E48">
+        <v>0.04361994011378222</v>
+      </c>
+      <c r="F48">
+        <v>0.018900650269985</v>
+      </c>
+      <c r="G48">
+        <v>0.01011089647638854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1531472571091697</v>
+        <v>0.175939668275171</v>
       </c>
       <c r="C49">
-        <v>-0.09378025477424974</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05831581970961314</v>
+      </c>
+      <c r="D49">
+        <v>0.009521256842555042</v>
+      </c>
+      <c r="E49">
+        <v>-0.1313898244287403</v>
+      </c>
+      <c r="F49">
+        <v>0.01985290608909339</v>
+      </c>
+      <c r="G49">
+        <v>0.06725683804305477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0324073008888696</v>
+        <v>0.03990037415420707</v>
       </c>
       <c r="C50">
-        <v>-0.02662465106752121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02198281042171664</v>
+      </c>
+      <c r="D50">
+        <v>0.03904312743973867</v>
+      </c>
+      <c r="E50">
+        <v>0.04300567895081646</v>
+      </c>
+      <c r="F50">
+        <v>0.02828083360877876</v>
+      </c>
+      <c r="G50">
+        <v>0.02019865643585878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02404995914085102</v>
+        <v>0.02569485910097118</v>
       </c>
       <c r="C51">
-        <v>-0.01793502229542576</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.0110816584857401</v>
+      </c>
+      <c r="D51">
+        <v>0.02593117327143287</v>
+      </c>
+      <c r="E51">
+        <v>0.01405647205426503</v>
+      </c>
+      <c r="F51">
+        <v>0.006403086331417529</v>
+      </c>
+      <c r="G51">
+        <v>-0.00846382089874333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1408973987942786</v>
+        <v>0.1593520823401968</v>
       </c>
       <c r="C53">
-        <v>-0.1034954197532792</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.07095791629525479</v>
+      </c>
+      <c r="D53">
+        <v>0.02370824169099107</v>
+      </c>
+      <c r="E53">
+        <v>-0.038157644558185</v>
+      </c>
+      <c r="F53">
+        <v>0.0260585536382896</v>
+      </c>
+      <c r="G53">
+        <v>0.01592255956140987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0527114633214542</v>
+        <v>0.05596145178526961</v>
       </c>
       <c r="C54">
-        <v>-0.02719241758839842</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01356662493932047</v>
+      </c>
+      <c r="D54">
+        <v>0.03706628275266529</v>
+      </c>
+      <c r="E54">
+        <v>0.04305825089891239</v>
+      </c>
+      <c r="F54">
+        <v>0.01245071283976732</v>
+      </c>
+      <c r="G54">
+        <v>0.01137527613782366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09382534878944922</v>
+        <v>0.1005359220711047</v>
       </c>
       <c r="C55">
-        <v>-0.06540296069206233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04402575635421902</v>
+      </c>
+      <c r="D55">
+        <v>0.033033838070896</v>
+      </c>
+      <c r="E55">
+        <v>0.006768818633075568</v>
+      </c>
+      <c r="F55">
+        <v>0.02763310682591481</v>
+      </c>
+      <c r="G55">
+        <v>0.005215727233283876</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1358984021700824</v>
+        <v>0.1573756252562716</v>
       </c>
       <c r="C56">
-        <v>-0.1123025256519971</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07895449053199134</v>
+      </c>
+      <c r="D56">
+        <v>0.01819643504537761</v>
+      </c>
+      <c r="E56">
+        <v>-0.03735162881942132</v>
+      </c>
+      <c r="F56">
+        <v>0.05704338480916183</v>
+      </c>
+      <c r="G56">
+        <v>0.02765080879289817</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.1156712644284991</v>
+        <v>0.1069521626909952</v>
       </c>
       <c r="C58">
-        <v>-0.03495806011504816</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.001660443369579811</v>
+      </c>
+      <c r="D58">
+        <v>0.05568340089907332</v>
+      </c>
+      <c r="E58">
+        <v>0.1802845243113466</v>
+      </c>
+      <c r="F58">
+        <v>0.04885657342558304</v>
+      </c>
+      <c r="G58">
+        <v>0.04415698585639062</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1066717141597676</v>
+        <v>0.1471645832248181</v>
       </c>
       <c r="C59">
-        <v>-0.09058298582873378</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08849695608684542</v>
+      </c>
+      <c r="D59">
+        <v>-0.3503335793892455</v>
+      </c>
+      <c r="E59">
+        <v>0.04920678228621014</v>
+      </c>
+      <c r="F59">
+        <v>-0.02542452231850652</v>
+      </c>
+      <c r="G59">
+        <v>0.01895734707998073</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1810752031458759</v>
+        <v>0.2127773490207882</v>
       </c>
       <c r="C60">
-        <v>-0.1199118623429575</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.08198738772921349</v>
+      </c>
+      <c r="D60">
+        <v>0.01509075427220718</v>
+      </c>
+      <c r="E60">
+        <v>-0.07105252399995664</v>
+      </c>
+      <c r="F60">
+        <v>0.03651233436869072</v>
+      </c>
+      <c r="G60">
+        <v>-0.0311550148383644</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07599984154329577</v>
+        <v>0.08393495168061758</v>
       </c>
       <c r="C61">
-        <v>-0.05937806262086405</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03922688050898486</v>
+      </c>
+      <c r="D61">
+        <v>0.06158542304395011</v>
+      </c>
+      <c r="E61">
+        <v>-0.01621331406465213</v>
+      </c>
+      <c r="F61">
+        <v>0.009615084969930724</v>
+      </c>
+      <c r="G61">
+        <v>0.03153773695935928</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1152542758496537</v>
+        <v>0.136425405662268</v>
       </c>
       <c r="C62">
-        <v>-0.08319431391263492</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05988014731090259</v>
+      </c>
+      <c r="D62">
+        <v>0.02806412571230868</v>
+      </c>
+      <c r="E62">
+        <v>-0.05691956208299968</v>
+      </c>
+      <c r="F62">
+        <v>0.02101986661516979</v>
+      </c>
+      <c r="G62">
+        <v>-0.02286032014896793</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04913437110290327</v>
+        <v>0.05150197655177891</v>
       </c>
       <c r="C63">
-        <v>-0.02945706716872467</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01831974568794174</v>
+      </c>
+      <c r="D63">
+        <v>0.03035693606169324</v>
+      </c>
+      <c r="E63">
+        <v>0.04912214470405271</v>
+      </c>
+      <c r="F63">
+        <v>0.01716911520961036</v>
+      </c>
+      <c r="G63">
+        <v>-0.02420441137639035</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.105569013028473</v>
+        <v>0.110686165543696</v>
       </c>
       <c r="C64">
-        <v>-0.04806005065621369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02536818398582362</v>
+      </c>
+      <c r="D64">
+        <v>0.04741744003151551</v>
+      </c>
+      <c r="E64">
+        <v>0.02902629152370143</v>
+      </c>
+      <c r="F64">
+        <v>0.05395151726532871</v>
+      </c>
+      <c r="G64">
+        <v>-0.01773995190426972</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1073493586049839</v>
+        <v>0.1211752037319778</v>
       </c>
       <c r="C65">
-        <v>-0.06785797128867638</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04584739571283916</v>
+      </c>
+      <c r="D65">
+        <v>0.01455810910504301</v>
+      </c>
+      <c r="E65">
+        <v>-0.00082473180563785</v>
+      </c>
+      <c r="F65">
+        <v>0.05673030108558048</v>
+      </c>
+      <c r="G65">
+        <v>-0.03766554936427789</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1342528295123842</v>
+        <v>0.1513116410147967</v>
       </c>
       <c r="C66">
-        <v>-0.09167111562860193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05797077356028556</v>
+      </c>
+      <c r="D66">
+        <v>0.1206254267744231</v>
+      </c>
+      <c r="E66">
+        <v>-0.05973445603909156</v>
+      </c>
+      <c r="F66">
+        <v>0.04434171920230622</v>
+      </c>
+      <c r="G66">
+        <v>0.007880615640360454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06838943397369993</v>
+        <v>0.07376596145060489</v>
       </c>
       <c r="C67">
-        <v>-0.02544180069343698</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.009585005173292719</v>
+      </c>
+      <c r="D67">
+        <v>0.02567147868302002</v>
+      </c>
+      <c r="E67">
+        <v>0.02731624558562374</v>
+      </c>
+      <c r="F67">
+        <v>-0.002358292847967472</v>
+      </c>
+      <c r="G67">
+        <v>0.0006254624106588588</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05300658709315682</v>
+        <v>0.06878295179227593</v>
       </c>
       <c r="C68">
-        <v>-0.0499016955742447</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04985031090826906</v>
+      </c>
+      <c r="D68">
+        <v>-0.2646485042665207</v>
+      </c>
+      <c r="E68">
+        <v>0.05076590719685738</v>
+      </c>
+      <c r="F68">
+        <v>0.01079132319509405</v>
+      </c>
+      <c r="G68">
+        <v>0.002265264148560344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04792291572183338</v>
+        <v>0.05034948083559805</v>
       </c>
       <c r="C69">
-        <v>-0.02859141468325978</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01282169164401896</v>
+      </c>
+      <c r="D69">
+        <v>0.03651777213931106</v>
+      </c>
+      <c r="E69">
+        <v>0.01732080809547921</v>
+      </c>
+      <c r="F69">
+        <v>0.002172234358445926</v>
+      </c>
+      <c r="G69">
+        <v>0.008424589036807383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.003801519478172388</v>
+        <v>0.01364466439178858</v>
       </c>
       <c r="C70">
-        <v>0.001748293259324878</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0009052133459304845</v>
+      </c>
+      <c r="D70">
+        <v>-0.006103470922824112</v>
+      </c>
+      <c r="E70">
+        <v>-0.024088204567525</v>
+      </c>
+      <c r="F70">
+        <v>0.01041196462662237</v>
+      </c>
+      <c r="G70">
+        <v>0.00774234735509138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05590177821104816</v>
+        <v>0.07234459757553627</v>
       </c>
       <c r="C71">
-        <v>-0.04900485459801281</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04865195926147781</v>
+      </c>
+      <c r="D71">
+        <v>-0.2994157345858398</v>
+      </c>
+      <c r="E71">
+        <v>0.04809162406969895</v>
+      </c>
+      <c r="F71">
+        <v>0.03259728283750236</v>
+      </c>
+      <c r="G71">
+        <v>0.002509892751177621</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1288324238257003</v>
+        <v>0.1499670430395648</v>
       </c>
       <c r="C72">
-        <v>-0.07948886947233848</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.05328540097030055</v>
+      </c>
+      <c r="D72">
+        <v>0.01395984678315791</v>
+      </c>
+      <c r="E72">
+        <v>-0.0986248029872018</v>
+      </c>
+      <c r="F72">
+        <v>-0.1567372074519408</v>
+      </c>
+      <c r="G72">
+        <v>-0.1168863243218958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2422619220048421</v>
+        <v>0.2675641502032018</v>
       </c>
       <c r="C73">
-        <v>-0.1430712494069377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08956083571431486</v>
+      </c>
+      <c r="D73">
+        <v>0.06237750084871702</v>
+      </c>
+      <c r="E73">
+        <v>-0.1864951449807737</v>
+      </c>
+      <c r="F73">
+        <v>0.07291722282187334</v>
+      </c>
+      <c r="G73">
+        <v>0.1586404677127832</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07613738125943852</v>
+        <v>0.08853558443474052</v>
       </c>
       <c r="C74">
-        <v>-0.08318315424653501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.06341440550194148</v>
+      </c>
+      <c r="D74">
+        <v>0.03541930427122607</v>
+      </c>
+      <c r="E74">
+        <v>-0.002788351395108675</v>
+      </c>
+      <c r="F74">
+        <v>-0.003344409589455737</v>
+      </c>
+      <c r="G74">
+        <v>0.03225250884087261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09505582884660815</v>
+        <v>0.1067257472488784</v>
       </c>
       <c r="C75">
-        <v>-0.07152631695457971</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.04339474336838337</v>
+      </c>
+      <c r="D75">
+        <v>0.01956861963861586</v>
+      </c>
+      <c r="E75">
+        <v>0.001531249211558045</v>
+      </c>
+      <c r="F75">
+        <v>0.06812990022777492</v>
+      </c>
+      <c r="G75">
+        <v>0.009490218912658516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1175269530000974</v>
+        <v>0.1320237726708126</v>
       </c>
       <c r="C76">
-        <v>-0.1014842214005858</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06992776898600932</v>
+      </c>
+      <c r="D76">
+        <v>0.05747073801821792</v>
+      </c>
+      <c r="E76">
+        <v>0.007851015280626216</v>
+      </c>
+      <c r="F76">
+        <v>0.06844973804883329</v>
+      </c>
+      <c r="G76">
+        <v>0.01139484509995541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.09637303850698527</v>
+        <v>0.1029297248196094</v>
       </c>
       <c r="C77">
-        <v>-0.07057887521576321</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.03756543692539156</v>
+      </c>
+      <c r="D77">
+        <v>0.04185313673126596</v>
+      </c>
+      <c r="E77">
+        <v>-0.02885009740999361</v>
+      </c>
+      <c r="F77">
+        <v>0.2522107443362717</v>
+      </c>
+      <c r="G77">
+        <v>-0.8960254407644005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0829603017583441</v>
+        <v>0.1015234291848054</v>
       </c>
       <c r="C78">
-        <v>-0.0481665533289489</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03355265380028827</v>
+      </c>
+      <c r="D78">
+        <v>0.07511014622092735</v>
+      </c>
+      <c r="E78">
+        <v>0.05094554480240441</v>
+      </c>
+      <c r="F78">
+        <v>-0.001742628073492064</v>
+      </c>
+      <c r="G78">
+        <v>-0.0210246886450008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1351146294992861</v>
+        <v>0.150090177775116</v>
       </c>
       <c r="C79">
-        <v>-0.1028722183489657</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06557492770247893</v>
+      </c>
+      <c r="D79">
+        <v>0.03108984933586261</v>
+      </c>
+      <c r="E79">
+        <v>-0.02577269029769827</v>
+      </c>
+      <c r="F79">
+        <v>0.03857390837323123</v>
+      </c>
+      <c r="G79">
+        <v>0.01395056435344029</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0441873898440437</v>
+        <v>0.04221369124953429</v>
       </c>
       <c r="C80">
-        <v>-0.02053874516151605</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.007986109378427263</v>
+      </c>
+      <c r="D80">
+        <v>0.02614324066754125</v>
+      </c>
+      <c r="E80">
+        <v>0.001033422216442441</v>
+      </c>
+      <c r="F80">
+        <v>-0.02129072676706722</v>
+      </c>
+      <c r="G80">
+        <v>0.05002198983392559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1083300772520779</v>
+        <v>0.1202004467959245</v>
       </c>
       <c r="C81">
-        <v>-0.08365829996935642</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05410644274559737</v>
+      </c>
+      <c r="D81">
+        <v>0.03869720711384998</v>
+      </c>
+      <c r="E81">
+        <v>-0.006712384395018314</v>
+      </c>
+      <c r="F81">
+        <v>0.0378223075881917</v>
+      </c>
+      <c r="G81">
+        <v>0.05090662417265414</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.113849585640424</v>
+        <v>0.1250688149755912</v>
       </c>
       <c r="C82">
-        <v>-0.0940839371577584</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06103389222722828</v>
+      </c>
+      <c r="D82">
+        <v>0.03796531989340945</v>
+      </c>
+      <c r="E82">
+        <v>-0.02910348655518549</v>
+      </c>
+      <c r="F82">
+        <v>0.05555045539791023</v>
+      </c>
+      <c r="G82">
+        <v>0.05702337171820747</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07158830531701803</v>
+        <v>0.0706405410983741</v>
       </c>
       <c r="C83">
-        <v>-0.0170120711267832</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.004219014361785983</v>
+      </c>
+      <c r="D83">
+        <v>0.04359101991752562</v>
+      </c>
+      <c r="E83">
+        <v>0.007418532776355045</v>
+      </c>
+      <c r="F83">
+        <v>0.005913899710954195</v>
+      </c>
+      <c r="G83">
+        <v>0.06078383696986644</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02460046112746644</v>
+        <v>0.03284610111472006</v>
       </c>
       <c r="C84">
-        <v>-0.02184232957191308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02104903378861738</v>
+      </c>
+      <c r="D84">
+        <v>0.01635458224199305</v>
+      </c>
+      <c r="E84">
+        <v>0.0166712258428545</v>
+      </c>
+      <c r="F84">
+        <v>-0.03382244955613377</v>
+      </c>
+      <c r="G84">
+        <v>0.0405284568791064</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1162751493518946</v>
+        <v>0.1183472723217418</v>
       </c>
       <c r="C85">
-        <v>-0.08235658347965395</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04691765331975372</v>
+      </c>
+      <c r="D85">
+        <v>0.03734636307890071</v>
+      </c>
+      <c r="E85">
+        <v>0.01164974965129146</v>
+      </c>
+      <c r="F85">
+        <v>0.08396932286269808</v>
+      </c>
+      <c r="G85">
+        <v>-0.0017496579451757</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04379006764848179</v>
+        <v>0.04745982475726001</v>
       </c>
       <c r="C86">
-        <v>-0.0265547422618981</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01264627394068308</v>
+      </c>
+      <c r="D86">
+        <v>0.01362908100067762</v>
+      </c>
+      <c r="E86">
+        <v>0.0463346350170109</v>
+      </c>
+      <c r="F86">
+        <v>0.01665568796225485</v>
+      </c>
+      <c r="G86">
+        <v>0.005870711719959102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1135315673313018</v>
+        <v>0.1186279263902553</v>
       </c>
       <c r="C87">
-        <v>-0.08271513615796353</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.04848418134931969</v>
+      </c>
+      <c r="D87">
+        <v>0.07393094523107853</v>
+      </c>
+      <c r="E87">
+        <v>0.01801465898148929</v>
+      </c>
+      <c r="F87">
+        <v>0.02619110994329185</v>
+      </c>
+      <c r="G87">
+        <v>-0.09622453520967013</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05308075371452532</v>
+        <v>0.05696966940405705</v>
       </c>
       <c r="C88">
-        <v>-0.04305806990593369</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02645749897375735</v>
+      </c>
+      <c r="D88">
+        <v>0.02681925965015425</v>
+      </c>
+      <c r="E88">
+        <v>0.02076596167551824</v>
+      </c>
+      <c r="F88">
+        <v>0.00850776955917348</v>
+      </c>
+      <c r="G88">
+        <v>-0.007703317376897697</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07292418037730103</v>
+        <v>0.1045372729334439</v>
       </c>
       <c r="C89">
-        <v>-0.07965024832699692</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07903485340356779</v>
+      </c>
+      <c r="D89">
+        <v>-0.3262328245917573</v>
+      </c>
+      <c r="E89">
+        <v>0.08468811730638502</v>
+      </c>
+      <c r="F89">
+        <v>0.05431056300810115</v>
+      </c>
+      <c r="G89">
+        <v>0.009268281245576493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06855430989222895</v>
+        <v>0.09017599816524023</v>
       </c>
       <c r="C90">
-        <v>-0.07150094712024023</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06899161142907721</v>
+      </c>
+      <c r="D90">
+        <v>-0.3114742155252625</v>
+      </c>
+      <c r="E90">
+        <v>0.06703363471807736</v>
+      </c>
+      <c r="F90">
+        <v>-0.01564348037232897</v>
+      </c>
+      <c r="G90">
+        <v>0.01554411594582282</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07890289105265093</v>
+        <v>0.08808958125252321</v>
       </c>
       <c r="C91">
-        <v>-0.06590755480041308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04348049829120744</v>
+      </c>
+      <c r="D91">
+        <v>0.02960980900388082</v>
+      </c>
+      <c r="E91">
+        <v>0.008455581540404837</v>
+      </c>
+      <c r="F91">
+        <v>0.01302580630752861</v>
+      </c>
+      <c r="G91">
+        <v>0.03293157394470191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08286614243838578</v>
+        <v>0.1046889661171615</v>
       </c>
       <c r="C92">
-        <v>-0.07162218200072204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.0678640822242508</v>
+      </c>
+      <c r="D92">
+        <v>-0.3269885151164584</v>
+      </c>
+      <c r="E92">
+        <v>0.04403227611769073</v>
+      </c>
+      <c r="F92">
+        <v>0.02210574903010107</v>
+      </c>
+      <c r="G92">
+        <v>-0.01427916613751691</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06009098062052834</v>
+        <v>0.08518656012028016</v>
       </c>
       <c r="C93">
-        <v>-0.06714293827719642</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06771468808932174</v>
+      </c>
+      <c r="D93">
+        <v>-0.2996552241955869</v>
+      </c>
+      <c r="E93">
+        <v>0.04016747379602346</v>
+      </c>
+      <c r="F93">
+        <v>0.03436039190484209</v>
+      </c>
+      <c r="G93">
+        <v>-0.01451259451980814</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1239573096251072</v>
+        <v>0.1272381847347931</v>
       </c>
       <c r="C94">
-        <v>-0.07804109932792562</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03814328050200697</v>
+      </c>
+      <c r="D94">
+        <v>0.05806579785904345</v>
+      </c>
+      <c r="E94">
+        <v>-0.0314248960314389</v>
+      </c>
+      <c r="F94">
+        <v>0.04895813575575574</v>
+      </c>
+      <c r="G94">
+        <v>0.0308623526054449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.114209144601673</v>
+        <v>0.1204177683890052</v>
       </c>
       <c r="C95">
-        <v>-0.05657887930740609</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.02809433137720751</v>
+      </c>
+      <c r="D95">
+        <v>0.05449346115044965</v>
+      </c>
+      <c r="E95">
+        <v>-0.01291390732275764</v>
+      </c>
+      <c r="F95">
+        <v>0.0427448225764162</v>
+      </c>
+      <c r="G95">
+        <v>-0.0035078881555145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1889573276513171</v>
+        <v>0.2215937085781445</v>
       </c>
       <c r="C97">
-        <v>-0.07808505313639333</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.04411553306364104</v>
+      </c>
+      <c r="D97">
+        <v>-0.006174138373004422</v>
+      </c>
+      <c r="E97">
+        <v>-0.1810039064522401</v>
+      </c>
+      <c r="F97">
+        <v>-0.8832611950808167</v>
+      </c>
+      <c r="G97">
+        <v>-0.1980640968637921</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.233826889724081</v>
+        <v>0.2589833047821934</v>
       </c>
       <c r="C98">
-        <v>-0.1243032525409485</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06632748043379257</v>
+      </c>
+      <c r="D98">
+        <v>0.03851434187630524</v>
+      </c>
+      <c r="E98">
+        <v>-0.141690243452976</v>
+      </c>
+      <c r="F98">
+        <v>0.02216324621867221</v>
+      </c>
+      <c r="G98">
+        <v>0.2505624459887355</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5696907428487112</v>
+        <v>0.3789672946730915</v>
       </c>
       <c r="C99">
-        <v>0.812321408334734</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9148654931434136</v>
+      </c>
+      <c r="D99">
+        <v>-0.07430312119851096</v>
+      </c>
+      <c r="E99">
+        <v>0.0421325605018916</v>
+      </c>
+      <c r="F99">
+        <v>0.03904206794628617</v>
+      </c>
+      <c r="G99">
+        <v>-0.0002425008689651209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03621356078640807</v>
+        <v>0.04234106491113691</v>
       </c>
       <c r="C101">
-        <v>-0.03322156386290695</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02569360270821326</v>
+      </c>
+      <c r="D101">
+        <v>0.01026483948932557</v>
+      </c>
+      <c r="E101">
+        <v>0.0365759555916095</v>
+      </c>
+      <c r="F101">
+        <v>0.0101656502530137</v>
+      </c>
+      <c r="G101">
+        <v>0.009383109072687142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
